--- a/IMDB_Analysis.xlsx
+++ b/IMDB_Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024Fall\yanxue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonLearning\project_IMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16570B62-1842-4261-8046-C880CF64B591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E76A7A-207C-4434-AFF2-3DD576A6BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EABACF39-CF93-48DE-A4EE-07E44130EB2F}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>cnn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>train acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,23 +81,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distilbert_native</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distilbert_trainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta_prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embed_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pooling_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_hiddens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distilbert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bert_trainer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>transformer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distilbert_native</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distilbert_trainer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deberta_prompt</t>
+    <t>bert_rdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert_scl_trainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta_lora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta_ptuning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,10 +259,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,153 +598,605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6A3540-5E88-47E6-A317-8F06EEE7D666}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="9" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>0.76527999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>300</v>
+      </c>
+      <c r="J2" s="3">
+        <v>128</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>0.73612</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>300</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3">
+        <v>64</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>0.84516000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>300</v>
+      </c>
+      <c r="J4" s="3">
+        <v>128</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>64</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3">
         <v>0.86384000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>300</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3">
+        <v>64</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>0.85219999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>300</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="3">
+        <v>64</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.96</v>
       </c>
       <c r="E7" s="3">
         <v>0.89847999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.92559999999999998</v>
       </c>
       <c r="E8" s="3">
         <v>0.93559999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.93500000000000005</v>
       </c>
       <c r="E9" s="3">
         <v>0.93955999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.93384</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.93652000000000002</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>300</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>64</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.91535999999999995</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.93023999999999996</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.91535999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D16" s="3">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.87336000000000003</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.93915999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.93023999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.85919999999999996</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.87336000000000003</v>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.91132000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="5">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
